--- a/DeMystifyXGBoost-Example1.xlsx
+++ b/DeMystifyXGBoost-Example1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Debanjan_Bhattachary/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939E53B9-7D41-4548-91A8-0F652F31987F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A937010-7CCA-274B-9B6E-1E8CF712C8EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{8DFD80D0-80CA-5848-8A30-CC33159E2F37}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,17 +100,17 @@
     <t>new prob</t>
   </si>
   <si>
-    <t>Child 1/Leaf 1 - Class 0 Biased</t>
-  </si>
-  <si>
-    <t>Child 2/Leaf 2 - Class 1 Biased</t>
+    <t>Child 1 - Class 0 Majority</t>
+  </si>
+  <si>
+    <t>Child 2 - Class 1 Majority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,13 +141,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,11 +188,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -176,14 +199,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,28 +530,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17EBC30-4A07-2749-B289-3DF34D8049B0}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" t="s">
         <v>2</v>
       </c>
@@ -630,7 +660,7 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <f>SUM(B4:J4)</f>
         <v>200</v>
       </c>
@@ -666,7 +696,7 @@
       <c r="J5">
         <v>8</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <f>SUM(B5:J5)</f>
         <v>20</v>
       </c>
@@ -762,7 +792,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K8">
@@ -861,7 +891,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K11">
@@ -873,7 +903,7 @@
       <c r="I12" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K12">
@@ -885,28 +915,28 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13">
         <f>K12-(K26+K43)</f>
         <v>7.8742185358477101</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" t="s">
         <v>2</v>
       </c>
@@ -980,7 +1010,7 @@
       <c r="I17">
         <v>0.8</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -1015,7 +1045,7 @@
       <c r="J18">
         <v>2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <f>SUM(B18:J18)</f>
         <v>180</v>
       </c>
@@ -1051,7 +1081,7 @@
       <c r="J19">
         <v>2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <f>SUM(B19:J19)</f>
         <v>5</v>
       </c>
@@ -1147,7 +1177,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K22">
@@ -1246,7 +1276,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K25">
@@ -1258,7 +1288,7 @@
       <c r="I26" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K26">
@@ -1276,7 +1306,7 @@
       <c r="I27" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K27">
@@ -1289,39 +1319,39 @@
         <v>18</v>
       </c>
       <c r="B29">
-        <f>B16+$K$27</f>
+        <f t="shared" ref="B29:J29" si="17">B16+$K$27</f>
         <v>-3.5606340819022457</v>
       </c>
       <c r="C29">
-        <f>C16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>-2.7506340819022457</v>
       </c>
       <c r="D29">
-        <f>D16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>-2.2106340819022456</v>
       </c>
       <c r="E29">
-        <f>E16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>-1.7706340819022455</v>
       </c>
       <c r="F29">
-        <f>F16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>-1.3606340819022456</v>
       </c>
       <c r="G29">
-        <f>G16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>-0.95063408190224563</v>
       </c>
       <c r="H29">
-        <f>H16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>-0.51063408190224557</v>
       </c>
       <c r="I29">
-        <f>I16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>2.9365918097754351E-2</v>
       </c>
       <c r="J29">
-        <f>J16+$K$27</f>
+        <f t="shared" si="17"/>
         <v>0.83936591809775463</v>
       </c>
     </row>
@@ -1334,463 +1364,463 @@
         <v>0.03</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:J30" si="17">ROUND(1/(1+POWER(2.718,-C29)),2)</f>
+        <f t="shared" ref="C30:J30" si="18">ROUND(1/(1+POWER(2.718,-C29)),2)</f>
         <v>0.06</v>
       </c>
       <c r="D30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.15</v>
       </c>
       <c r="F30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="H30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.38</v>
       </c>
       <c r="I30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.51</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="17"/>
+      <c r="J30" s="12">
+        <f t="shared" si="18"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="4" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>-1.39</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>-0.85</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>-0.41</v>
       </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>0.41</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>0.85</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>1.39</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>0.1</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>0.2</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>0.3</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>0.4</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>0.5</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>0.6</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>0.7</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>0.8</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>0.9</v>
       </c>
-      <c r="K34" s="4"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4">
-        <f>B4-B18</f>
+      <c r="B35" s="3">
+        <f t="shared" ref="B35:J35" si="19">B4-B18</f>
         <v>12</v>
       </c>
-      <c r="C35" s="4">
-        <f>C4-C18</f>
+      <c r="C35" s="3">
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="D35" s="4">
-        <f>D4-D18</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <f>E4-E18</f>
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <f>F4-F18</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="4">
-        <f>G4-G18</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="4">
-        <f>H4-H18</f>
-        <v>1</v>
-      </c>
-      <c r="I35" s="4">
-        <f>I4-I18</f>
-        <v>1</v>
-      </c>
-      <c r="J35" s="4">
-        <f>J4-J18</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
+      <c r="D35" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
         <f>SUM(B35:J35)</f>
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="4">
-        <f>B5-B19</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="4">
-        <f>C5-C19</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
-        <f>D5-D19</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <f>E5-E19</f>
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <f>F5-F19</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <f>G5-G19</f>
+      <c r="B36" s="3">
+        <f t="shared" ref="B36:J36" si="20">B5-B19</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="H36" s="4">
-        <f>H5-H19</f>
+      <c r="H36" s="3">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="I36" s="4">
-        <f>I5-I19</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="4">
-        <f>J5-J19</f>
+      <c r="I36" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="7">
         <f>SUM(B36:J36)</f>
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <f>B35*(B34-0)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="C37" s="4">
-        <f t="shared" ref="C37:J37" si="18">C35*(C34-0)</f>
+      <c r="C37" s="3">
+        <f t="shared" ref="C37:J37" si="21">C35*(C34-0)</f>
         <v>0.4</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" si="18"/>
+      <c r="D37" s="3">
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" si="18"/>
+      <c r="E37" s="3">
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
-      <c r="F37" s="4">
-        <f t="shared" si="18"/>
+      <c r="F37" s="3">
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="G37" s="4">
-        <f t="shared" si="18"/>
+      <c r="G37" s="3">
+        <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
-      <c r="H37" s="4">
-        <f t="shared" si="18"/>
+      <c r="H37" s="3">
+        <f t="shared" si="21"/>
         <v>0.7</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="18"/>
+      <c r="I37" s="3">
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
-      <c r="J37" s="4">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
+      <c r="J37" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
         <f>SUM(B37:J37)</f>
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <f>B36*(B34-1)</f>
         <v>-0.9</v>
       </c>
-      <c r="C38" s="4">
-        <f t="shared" ref="C38:J38" si="19">C36*(C34-1)</f>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:J38" si="22">C36*(C34-1)</f>
         <v>-0.8</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="19"/>
+      <c r="D38" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="22"/>
         <v>-0.6</v>
       </c>
-      <c r="F38" s="4">
-        <f t="shared" si="19"/>
+      <c r="F38" s="3">
+        <f t="shared" si="22"/>
         <v>-0.5</v>
       </c>
-      <c r="G38" s="4">
-        <f t="shared" si="19"/>
+      <c r="G38" s="3">
+        <f t="shared" si="22"/>
         <v>-0.8</v>
       </c>
-      <c r="H38" s="4">
-        <f t="shared" si="19"/>
+      <c r="H38" s="3">
+        <f t="shared" si="22"/>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="19"/>
+      <c r="I38" s="3">
+        <f t="shared" si="22"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="J38" s="4">
-        <f t="shared" si="19"/>
+      <c r="J38" s="3">
+        <f t="shared" si="22"/>
         <v>-0.59999999999999987</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f>SUM(B38:J38)</f>
         <v>-5.0000000000000009</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="5" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <f>SUM(K37:K38)</f>
         <v>-0.10000000000000053</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <f>B35*B34*(1-B34)</f>
         <v>1.0800000000000003</v>
       </c>
-      <c r="C40" s="4">
-        <f t="shared" ref="C40:J40" si="20">C35*C34*(1-C34)</f>
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:J40" si="23">C35*C34*(1-C34)</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="D40" s="4">
-        <f t="shared" si="20"/>
+      <c r="D40" s="3">
+        <f t="shared" si="23"/>
         <v>0.21</v>
       </c>
-      <c r="E40" s="4">
-        <f t="shared" si="20"/>
+      <c r="E40" s="3">
+        <f t="shared" si="23"/>
         <v>0.24</v>
       </c>
-      <c r="F40" s="4">
-        <f t="shared" si="20"/>
+      <c r="F40" s="3">
+        <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
-      <c r="G40" s="4">
-        <f t="shared" si="20"/>
+      <c r="G40" s="3">
+        <f t="shared" si="23"/>
         <v>0.24</v>
       </c>
-      <c r="H40" s="4">
-        <f t="shared" si="20"/>
+      <c r="H40" s="3">
+        <f t="shared" si="23"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="I40" s="4">
-        <f t="shared" si="20"/>
+      <c r="I40" s="3">
+        <f t="shared" si="23"/>
         <v>0.15999999999999998</v>
       </c>
-      <c r="J40" s="4">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
+      <c r="J40" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
         <f>SUM(B40:J40)</f>
         <v>2.7100000000000009</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <f>B38*B34*(1-B34)</f>
         <v>-8.1000000000000016E-2</v>
       </c>
-      <c r="C41" s="4">
-        <f t="shared" ref="C41:J41" si="21">C38*C34*(1-C34)</f>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:J41" si="24">C38*C34*(1-C34)</f>
         <v>-0.12800000000000003</v>
       </c>
-      <c r="D41" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="21"/>
+      <c r="D41" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="24"/>
         <v>-0.14399999999999999</v>
       </c>
-      <c r="F41" s="4">
-        <f t="shared" si="21"/>
+      <c r="F41" s="3">
+        <f t="shared" si="24"/>
         <v>-0.125</v>
       </c>
-      <c r="G41" s="4">
-        <f t="shared" si="21"/>
+      <c r="G41" s="3">
+        <f t="shared" si="24"/>
         <v>-0.192</v>
       </c>
-      <c r="H41" s="4">
-        <f t="shared" si="21"/>
+      <c r="H41" s="3">
+        <f t="shared" si="24"/>
         <v>-0.12600000000000003</v>
       </c>
-      <c r="I41" s="4">
-        <f t="shared" si="21"/>
+      <c r="I41" s="3">
+        <f t="shared" si="24"/>
         <v>-3.1999999999999987E-2</v>
       </c>
-      <c r="J41" s="4">
-        <f t="shared" si="21"/>
+      <c r="J41" s="3">
+        <f t="shared" si="24"/>
         <v>-5.3999999999999979E-2</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <f>SUM(B41:J41)</f>
         <v>-0.88200000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <f>SUM(K40:K41)</f>
         <v>1.8280000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <f>-K39*K39/(K42+1)</f>
         <v>-3.5360678925035727E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <f>-K39/(K42+1)</f>
         <v>3.5360678925035541E-2</v>
       </c>
@@ -1804,35 +1834,35 @@
         <v>-2.1646393210749646</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:J46" si="22">C33+$K$44</f>
+        <f t="shared" ref="C46:J46" si="25">C33+$K$44</f>
         <v>-1.3546393210749643</v>
       </c>
       <c r="D46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.8146393210749644</v>
       </c>
       <c r="E46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.37463932107496445</v>
       </c>
       <c r="F46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3.5360678925035541E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.4453606789250355</v>
       </c>
       <c r="H46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.88536067892503556</v>
       </c>
       <c r="I46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.4253606789250355</v>
       </c>
       <c r="J46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.2353606789250358</v>
       </c>
     </row>
@@ -1845,35 +1875,35 @@
         <v>0.1</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:J47" si="23">ROUND(1/(1+POWER(2.718,-C46)),2)</f>
+        <f t="shared" ref="C47:J47" si="26">ROUND(1/(1+POWER(2.718,-C46)),2)</f>
         <v>0.21</v>
       </c>
       <c r="D47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.31</v>
       </c>
       <c r="E47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.41</v>
       </c>
       <c r="F47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.51</v>
       </c>
       <c r="G47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.61</v>
       </c>
       <c r="H47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.71</v>
       </c>
       <c r="I47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.81</v>
       </c>
       <c r="J47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
     </row>

--- a/DeMystifyXGBoost-Example1.xlsx
+++ b/DeMystifyXGBoost-Example1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Debanjan_Bhattachary/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A937010-7CCA-274B-9B6E-1E8CF712C8EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211065EC-09A2-6349-B359-05F087520319}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{8DFD80D0-80CA-5848-8A30-CC33159E2F37}"/>
   </bookViews>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17EBC30-4A07-2749-B289-3DF34D8049B0}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
